--- a/Resultaat.xlsx
+++ b/Resultaat.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\git\opdracht\opdracht grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4769F54F-7587-418D-8058-F1FF0DA024D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E63DF-B93E-49FD-AFA7-0661DC89B3EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7785" windowWidth="28830" windowHeight="7830" activeTab="1" xr2:uid="{AFE2A79E-D809-4690-820D-80568DB66224}"/>
-    <workbookView xWindow="-15810" yWindow="2775" windowWidth="28830" windowHeight="7020" tabRatio="766" xr2:uid="{D719A38D-157C-403F-8773-2FABE5BBD7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" xr2:uid="{D719A38D-157C-403F-8773-2FABE5BBD7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -719,10 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C752337-9440-48BF-BDC1-CBF678302A05}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M14" sqref="M14:T19"/>
     </sheetView>
   </sheetViews>
@@ -1259,10 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8445C3FE-AC62-4829-8F56-481A340418A4}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
